--- a/eligibility.xlsx
+++ b/eligibility.xlsx
@@ -202,15 +202,15 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3522267206478"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.03238866396761"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.995951417004"/>
     <col collapsed="false" hidden="false" max="9" min="5" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.57085020242915"/>

--- a/eligibility.xlsx
+++ b/eligibility.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t xml:space="preserve">REGISTER NO.</t>
   </si>
@@ -80,15 +80,6 @@
   </si>
   <si>
     <t xml:space="preserve">Comp3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCR15CS005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Akshay K S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comp4</t>
   </si>
   <si>
     <t xml:space="preserve">TCR15CS008</t>
@@ -199,18 +190,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.5668016194332"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.03238866396761"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.1012145748988"/>
     <col collapsed="false" hidden="false" max="9" min="5" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.57085020242915"/>
@@ -297,7 +288,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>20</v>
       </c>
@@ -316,121 +307,15 @@
       <c r="F4" s="0" t="n">
         <v>123456</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="J4" s="0" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="test@t.in"/>
     <hyperlink ref="E3" r:id="rId2" display="test@t.in"/>
     <hyperlink ref="E4" r:id="rId3" display="test@t.in"/>
-    <hyperlink ref="E5" r:id="rId4" display="test@t.in"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/eligibility.xlsx
+++ b/eligibility.xlsx
@@ -52,43 +52,43 @@
     <t xml:space="preserve">Remarks</t>
   </si>
   <si>
+    <t xml:space="preserve">TCR15CS001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abdu Samad M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.Tech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computer Science</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test@t.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comp2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comp3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CS008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anand Simmy Manuel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blacklisted</t>
+  </si>
+  <si>
     <t xml:space="preserve">IDK15CS039</t>
   </si>
   <si>
     <t xml:space="preserve">Namitha Murali</t>
   </si>
   <si>
-    <t xml:space="preserve">B.Tech</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Computer Science</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test@t.in</t>
-  </si>
-  <si>
     <t xml:space="preserve">Comp1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCR15CS001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abdu Samad M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comp2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comp3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCR15CS008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anand Simmy Manuel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blacklisted</t>
   </si>
 </sst>
 </file>
@@ -190,18 +190,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.7813765182186"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.03238866396761"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.2105263157895"/>
     <col collapsed="false" hidden="false" max="9" min="5" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.57085020242915"/>
@@ -239,7 +239,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>10</v>
       </c>
@@ -252,22 +252,25 @@
       <c r="D2" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="0" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>123456</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="I2" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>12</v>
@@ -281,14 +284,11 @@
       <c r="F3" s="0" t="n">
         <v>123456</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="0" t="s">
+      <c r="J3" s="0" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>20</v>
       </c>
@@ -301,16 +301,17 @@
       <c r="D4" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>123456</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="G4" s="0" t="s">
         <v>22</v>
       </c>
     </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="test@t.in"/>

--- a/eligibility.xlsx
+++ b/eligibility.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="118">
   <si>
     <t xml:space="preserve">REGISTER NO.</t>
   </si>
@@ -82,13 +82,298 @@
     <t xml:space="preserve">Blacklisted</t>
   </si>
   <si>
-    <t xml:space="preserve">IDK15CS039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namitha Murali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comp1</t>
+    <t xml:space="preserve">TCR15CS009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anjali Ranjith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comp 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CS010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anjali U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CS011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anjaly S Menon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comp 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CS014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aswin Pradeep P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CS015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Athira P T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dcxmo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CS016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ayisha Rashid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CS017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azra Hashir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dqedqe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wqd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CS018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digina V P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CS019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dinusha P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CS020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gayathri C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CS021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gayathri Devi P A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CS025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jacob Roy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CS027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jashim Gafoor K K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drfff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CS030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jithin Lal K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CS031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jithu J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dww</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CS032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joel Antony Joy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Damdd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CS034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K Lakshmi Prasad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CS035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria Pauly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CS038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mohammed Asif N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dqw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CS039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mohammed Shiyaf Chettali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CS040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muneeba Ruby T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CS047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rohith Krishnan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CS049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roshini K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CS050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanjay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CS051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanjna Mohan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CS052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saurav James Zachrias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CS054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shreya Davis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CS058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swarna E M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CS060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T S Ajay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CS061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiny Mol James</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CS062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vijitha A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CS064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vrindha Viswambharan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CS065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vyshnavi Pk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CS066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ambili T P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CS067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anagha Raveendran R S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CS068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aswathi P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CS069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sarath P K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CS070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soumya. M P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CS071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subina M T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CS072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asha Simon</t>
   </si>
 </sst>
 </file>
@@ -164,12 +449,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -193,15 +474,15 @@
   <dimension ref="A1:J65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="J22" activeCellId="0" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.995951417004"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.03238866396761"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.3157894736842"/>
     <col collapsed="false" hidden="false" max="9" min="5" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.57085020242915"/>
@@ -288,7 +569,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>20</v>
       </c>
@@ -301,14 +582,908 @@
       <c r="D4" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="0" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>123456</v>
+        <v>123457</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>123458</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>123459</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>123460</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>123461</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>123462</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>123463</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>123464</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>123465</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>123466</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>123467</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>123468</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>123469</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>123470</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>123471</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>123472</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>123473</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>123474</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>123475</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>123476</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>123477</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>123478</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>123479</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>123480</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>123481</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>123482</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>123483</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>123484</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>123485</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>123486</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>123487</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>123488</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>123489</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>123490</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>123491</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>123492</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>123493</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>123494</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>123495</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>123496</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -317,6 +1492,45 @@
     <hyperlink ref="E2" r:id="rId1" display="test@t.in"/>
     <hyperlink ref="E3" r:id="rId2" display="test@t.in"/>
     <hyperlink ref="E4" r:id="rId3" display="test@t.in"/>
+    <hyperlink ref="E5" r:id="rId4" display="test@t.in"/>
+    <hyperlink ref="E6" r:id="rId5" display="test@t.in"/>
+    <hyperlink ref="E7" r:id="rId6" display="test@t.in"/>
+    <hyperlink ref="E8" r:id="rId7" display="test@t.in"/>
+    <hyperlink ref="E9" r:id="rId8" display="test@t.in"/>
+    <hyperlink ref="E10" r:id="rId9" display="test@t.in"/>
+    <hyperlink ref="E11" r:id="rId10" display="test@t.in"/>
+    <hyperlink ref="E12" r:id="rId11" display="test@t.in"/>
+    <hyperlink ref="E13" r:id="rId12" display="test@t.in"/>
+    <hyperlink ref="E14" r:id="rId13" display="test@t.in"/>
+    <hyperlink ref="E15" r:id="rId14" display="test@t.in"/>
+    <hyperlink ref="E16" r:id="rId15" display="test@t.in"/>
+    <hyperlink ref="E17" r:id="rId16" display="test@t.in"/>
+    <hyperlink ref="E18" r:id="rId17" display="test@t.in"/>
+    <hyperlink ref="E19" r:id="rId18" display="test@t.in"/>
+    <hyperlink ref="E20" r:id="rId19" display="test@t.in"/>
+    <hyperlink ref="E21" r:id="rId20" display="test@t.in"/>
+    <hyperlink ref="E22" r:id="rId21" display="test@t.in"/>
+    <hyperlink ref="E23" r:id="rId22" display="test@t.in"/>
+    <hyperlink ref="E24" r:id="rId23" display="test@t.in"/>
+    <hyperlink ref="E25" r:id="rId24" display="test@t.in"/>
+    <hyperlink ref="E26" r:id="rId25" display="test@t.in"/>
+    <hyperlink ref="E27" r:id="rId26" display="test@t.in"/>
+    <hyperlink ref="E28" r:id="rId27" display="test@t.in"/>
+    <hyperlink ref="E29" r:id="rId28" display="test@t.in"/>
+    <hyperlink ref="E30" r:id="rId29" display="test@t.in"/>
+    <hyperlink ref="E31" r:id="rId30" display="test@t.in"/>
+    <hyperlink ref="E32" r:id="rId31" display="test@t.in"/>
+    <hyperlink ref="E33" r:id="rId32" display="test@t.in"/>
+    <hyperlink ref="E34" r:id="rId33" display="test@t.in"/>
+    <hyperlink ref="E35" r:id="rId34" display="test@t.in"/>
+    <hyperlink ref="E36" r:id="rId35" display="test@t.in"/>
+    <hyperlink ref="E37" r:id="rId36" display="test@t.in"/>
+    <hyperlink ref="E38" r:id="rId37" display="test@t.in"/>
+    <hyperlink ref="E39" r:id="rId38" display="test@t.in"/>
+    <hyperlink ref="E40" r:id="rId39" display="test@t.in"/>
+    <hyperlink ref="E41" r:id="rId40" display="test@t.in"/>
+    <hyperlink ref="E42" r:id="rId41" display="test@t.in"/>
+    <hyperlink ref="E43" r:id="rId42" display="test@t.in"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/eligibility.xlsx
+++ b/eligibility.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="451">
   <si>
     <t xml:space="preserve">REGISTER NO.</t>
   </si>
@@ -52,25 +52,1234 @@
     <t xml:space="preserve">Remarks</t>
   </si>
   <si>
+    <t xml:space="preserve">KKE15CH015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ashly Williams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.Tech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chemical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ashly.ash03@gmail.comashly.ash03@gmail.comashly.ash03@gmail.comashly.ash03@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comp2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comp3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KKE15CH045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reshma T R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reshmarajan0812@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blacklisted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CH001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abhijith R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07abhijithr@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comp 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CH002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abhiram Kp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abhiramkp11@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CH003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adarsh V.S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adarsh0vs@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comp 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CH004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aishwarya P Nambiar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aishwaryapnambiar@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CH006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aleena Shelvi K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aleenaask18@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dcxmo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CH007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amal Haridas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amalharidas4@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CH008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anand Kumar M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anandkumarm96ak@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dqedqe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wqd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CH009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anjal Mohammed K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anjalmohemmed@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CH010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ann Mary John</t>
+  </si>
+  <si>
+    <t xml:space="preserve">annmaryjohn97@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CH011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anwin John</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anwinjohn98@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CH012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Archana Ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">archanaarchanams@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CH013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arun Gopal T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arungopal13051997@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CH014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ashin V K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ashinvk123@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drfff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CH015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ashiq Shahul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ashikshahul786@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CH016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aswin Muraleedharan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aswinmuraly@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dww</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CH017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blessmy Rose K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blessmyrose@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Damdd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CH018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chethan Shyam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chethanshyam1@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CH019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dileep Nampoothiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">freakkid291612@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CH020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fariz Ismail A R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fariz.ismail.a.r@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dqw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CH021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fazil Aziz Abdulla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fazilazizdf@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CH022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gayathri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gayathryravindren@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CH024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jibin K K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jibinkakkassery97@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CH025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joseph M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">joekoonan@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CH026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jithin M J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mjjithin817@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CH027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiran A S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kiran07as@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CH028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiran M S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">666kiran.m.s999@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qseede</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CH029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krishnaveni V K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">krish07d98@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CH030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krithya K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">krithyak222@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CH031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kumar Namratha Vinaya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">namrathavinayakumar@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CH032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mohammed Unais C P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unaismuhammedcpunais@outlook.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CH033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mona Mangsatabam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">monamangsi135@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CH034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muhammed Shahazad K C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imshahazad005@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CH035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prabhath Ajayakumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prabhath1697@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CH036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pranav Jayaprakash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pranavjayaprakash99@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CH038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reethu Mathew</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reethuelanjimattathil@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CH039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rohith R Varier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rohithrvarier@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CH040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saroj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">saruzz.m@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CH041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sravan K Madhu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sravanmarar@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CH042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sreekutty K B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sreekuttykbabu96@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CH043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steve Roy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steveroyk@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CH045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thawfeequ Rahman Kottukkaran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kkthawfeequ@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CH046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tony Saji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tonysaji7@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CH047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vishnupriya Pp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vishnupriya.595@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CH049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yadhu Prakash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yadhuprakash27@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CH051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akhil K A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">akhil.ka2@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CH052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anusha T V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tvanusha555@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CH053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aswathi Vk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aswathivk37@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CH054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jishnu Pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jishnupm114@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TKM15CH046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neel Augustine M L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neelaugustine007@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KTE15CE038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muhammed Irfan Kt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Civil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">irfankt997@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KTE15CE056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sreejith T S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tssreejith17@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CE002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABHIJITH ES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abhijitheskutty@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CE004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abin Thomas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abin.hhh@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CE005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Achuthan H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">achuthanharikumar@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CE006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aiswarya Menon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aiswaryamenon1997@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CE007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajay Krishna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ajaykrishna5198gect@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CE009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akhil P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">akhilstar731@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CE010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akhil V Sukumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">akhilavs123@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CE011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akshaya Patak V.K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">akshaya22patak@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CE012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anamika K Reghu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anamikakreghu1997@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CE013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anandhu Raj D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anandhuboss@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CE014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anisha N A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anishana07@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CE015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anjima C S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anjimasunil@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CE016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anupama Harikumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anupamaharikumar966@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CE017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aparna K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aparnakrameshan@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CE018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Archana A R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">archanaar0369@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CE020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ashique Nisar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ashiquenisar@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CE021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ashna Francis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ash984fran@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CE022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Athul P K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">athulptk@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CE023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Athulya Mohan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">athulyamohan25@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CE024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deepak Kumar Mv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deepakkumarmv1997@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CE025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dheerajkumar V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vdheerajkumar7@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CE027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Godson T Tharakan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">godsonttharakan2359@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CE028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gokul Suresh K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gokulsureshk@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CE029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gopikrishnan T M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gopikrishnantm22@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CE030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hunain K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hunaink1996@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CE031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indu K I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">induki53@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CE032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jaydeep B Vinod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jaydeepbvinod@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CE034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jesty Simon Muttath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jestysimon14@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CE036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karthika M S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">karthikams2014@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CE038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khanzah.C.P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">khanzahcp@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CE039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K.S.NANDHINI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ksnandhini@yahoo.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CE040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leo Alfin Terry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">leoalfinterry@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CE041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mammu Ashif P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ashif.paravath@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CE042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manu Varghese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manuvarghese97@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CE043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meenu D. Prasad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meenudprasad97@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CE046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mohammed Akhil Salih</t>
+  </si>
+  <si>
+    <t xml:space="preserve">akhilsali3@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CE047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muhammed Rashid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rashidmrc250@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CE048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muhammed Arshad U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">muhammedarshadu@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CE049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muhammed Jasir T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tmuhammedjasir@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CE050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Najma Naurin V.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">najmanaurin@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CE053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nayana.M.Benoy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nayanambenoy@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CE056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nihala Mol V.T.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nihalamolvt@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CE058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nivya Mary Kattissery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nivyamary235@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CE060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prathul Ragesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prathulragesh22@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CE063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rashad bin Aboobacker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rashadbinaboobacker@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CE064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reneesh J Bright</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reneeshjb2597@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CE065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revathi V V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">revathikrishnan97@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CE066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riyamol Pe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">riyaeasow30@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CE067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roshan Manesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roshanmanesh6@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CE070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Satheeshkumar S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">satheeshkumars070@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CE072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shilna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shilnaks96@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CE074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sinchith M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sinchiththayyil@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CE076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sooraj T V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soorajtv16@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CE077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sourabh Suresh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soursure23@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CE078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spandhana M Haridas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spandhanaharidas@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CE079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sreehari K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sreehari507@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CE081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sreekesh T K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sreetkrish@yahoo.co.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CE083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T R Sreeshna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sreeshnatr96@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CE084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vandana Purushothaman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vandanapurushothaman95@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CE085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vidhya Raj K.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kvidhyaraj@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CE086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vijitha Vijayan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vijitha629@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CE088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZEBA NAAZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zeba.naaz9719@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CE089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ashique P A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ashiquepairulam@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CE093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namitha.P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">namithap95@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CE094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subhash.K.B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subhashtbk@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CE095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subin Kundolipurakkal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subinkp9@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CE096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swathy P.S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">swathybabu996@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CE148CT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akshay Kumar P D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">akshaykumarpd@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDK15CS039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namitha Murali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">namitha1323@gmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">TCR15CS001</t>
   </si>
   <si>
     <t xml:space="preserve">Abdu Samad M</t>
   </si>
   <si>
-    <t xml:space="preserve">B.Tech</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Computer Science</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test@t.in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comp2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comp3</t>
+    <t xml:space="preserve">abdu.samad.m.007@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CS002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adithya M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adithyamurali29@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CS003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adithya P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adithyapradeep1997@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CS005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akshay K S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">akshayks3573@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CS006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akshay T R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">akshaytrajesh@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CS007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amal Raj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amalrajp83@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">TCR15CS008</t>
@@ -79,7 +1288,7 @@
     <t xml:space="preserve">Anand Simmy Manuel</t>
   </si>
   <si>
-    <t xml:space="preserve">Blacklisted</t>
+    <t xml:space="preserve">anandsimmy7@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">TCR15CS009</t>
@@ -88,7 +1297,7 @@
     <t xml:space="preserve">Anjali Ranjith</t>
   </si>
   <si>
-    <t xml:space="preserve">Comp 3</t>
+    <t xml:space="preserve">anjaliranjith97@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">TCR15CS010</t>
@@ -97,10 +1306,7 @@
     <t xml:space="preserve">Anjali U</t>
   </si>
   <si>
-    <t xml:space="preserve">q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">w</t>
+    <t xml:space="preserve">anjaliunikoth@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">TCR15CS011</t>
@@ -109,10 +1315,28 @@
     <t xml:space="preserve">Anjaly S Menon</t>
   </si>
   <si>
-    <t xml:space="preserve">Comp 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d</t>
+    <t xml:space="preserve">anjalysmenon1997@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CS012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anjoom Muhammed Hidas M.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anjoommuhammedhidas@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCR15CS013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anupam Asok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computer Science and Engineering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aanu.asok701gmail.comanu.asok701gmailomanu.asok701gmail.comnu.asok701gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">TCR15CS014</t>
@@ -121,7 +1345,7 @@
     <t xml:space="preserve">Aswin Pradeep P</t>
   </si>
   <si>
-    <t xml:space="preserve">Dam</t>
+    <t xml:space="preserve">aswin9394@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">TCR15CS015</t>
@@ -130,7 +1354,7 @@
     <t xml:space="preserve">Athira P T</t>
   </si>
   <si>
-    <t xml:space="preserve">dcxmo</t>
+    <t xml:space="preserve">athirapt998@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">TCR15CS016</t>
@@ -139,7 +1363,7 @@
     <t xml:space="preserve">Ayisha Rashid</t>
   </si>
   <si>
-    <t xml:space="preserve">wd</t>
+    <t xml:space="preserve">bpayisha@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">TCR15CS017</t>
@@ -148,232 +1372,7 @@
     <t xml:space="preserve">Azra Hashir</t>
   </si>
   <si>
-    <t xml:space="preserve">dqedqe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wqd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCR15CS018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Digina V P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCR15CS019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dinusha P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCR15CS020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gayathri C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCR15CS021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gayathri Devi P A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCR15CS025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jacob Roy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCR15CS027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jashim Gafoor K K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drfff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCR15CS030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jithin Lal K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCR15CS031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jithu J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dww</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCR15CS032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joel Antony Joy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Damdd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCR15CS034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K Lakshmi Prasad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCR15CS035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maria Pauly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCR15CS038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mohammed Asif N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dqw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCR15CS039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mohammed Shiyaf Chettali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCR15CS040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muneeba Ruby T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCR15CS047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rohith Krishnan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCR15CS049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roshini K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCR15CS050</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sanjay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCR15CS051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sanjna Mohan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCR15CS052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saurav James Zachrias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCR15CS054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shreya Davis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCR15CS058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swarna E M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCR15CS060</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T S Ajay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCR15CS061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tiny Mol James</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCR15CS062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vijitha A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCR15CS064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vrindha Viswambharan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCR15CS065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vyshnavi Pk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCR15CS066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ambili T P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCR15CS067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anagha Raveendran R S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCR15CS068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aswathi P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCR15CS069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sarath P K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCR15CS070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soumya. M P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCR15CS071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subina M T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCR15CS072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asha Simon</t>
+    <t xml:space="preserve">azrahashir@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -471,19 +1470,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J65536"/>
+  <dimension ref="A1:J139"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J22" activeCellId="0" sqref="J22"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.4210526315789"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.03238866396761"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="9" min="5" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.57085020242915"/>
   </cols>
@@ -537,7 +1538,7 @@
         <v>14</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>123456</v>
+        <v>9400086476</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>15</v>
@@ -560,21 +1561,21 @@
         <v>13</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>123456</v>
+        <v>9495779886</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>12</v>
@@ -583,21 +1584,21 @@
         <v>13</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>123457</v>
+        <v>8129790750</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>12</v>
@@ -606,24 +1607,24 @@
         <v>13</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>123458</v>
+        <v>9497059735</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>12</v>
@@ -632,27 +1633,27 @@
         <v>13</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>123459</v>
+        <v>7356838338</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>12</v>
@@ -661,21 +1662,21 @@
         <v>13</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>123460</v>
+        <v>9447593073</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>12</v>
@@ -684,21 +1685,21 @@
         <v>13</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>123461</v>
+        <v>7034780259</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>12</v>
@@ -707,21 +1708,21 @@
         <v>13</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>123462</v>
+        <v>9744445698</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>12</v>
@@ -730,27 +1731,27 @@
         <v>13</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>123463</v>
+        <v>9656222370</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>12</v>
@@ -759,18 +1760,18 @@
         <v>13</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>123464</v>
+        <v>7356838312</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>12</v>
@@ -779,21 +1780,21 @@
         <v>13</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>123465</v>
+        <v>8547992318</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>12</v>
@@ -802,24 +1803,24 @@
         <v>13</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>123466</v>
+        <v>9447450359</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>12</v>
@@ -828,21 +1829,21 @@
         <v>13</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>123467</v>
+        <v>7994251197</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>12</v>
@@ -851,21 +1852,21 @@
         <v>13</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>123468</v>
+        <v>7025902651</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>12</v>
@@ -874,24 +1875,24 @@
         <v>13</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>123469</v>
+        <v>9400844263</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>12</v>
@@ -900,21 +1901,21 @@
         <v>13</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>123470</v>
+        <v>8606324158</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>12</v>
@@ -923,24 +1924,24 @@
         <v>13</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>123471</v>
+        <v>9400561289</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>12</v>
@@ -949,27 +1950,27 @@
         <v>13</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>123472</v>
+        <v>9946823482</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>12</v>
@@ -978,30 +1979,30 @@
         <v>13</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>123473</v>
+        <v>9995859559</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>12</v>
@@ -1010,24 +2011,24 @@
         <v>13</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>123474</v>
+        <v>8921636956</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>12</v>
@@ -1036,13 +2037,13 @@
         <v>13</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>123475</v>
+        <v>8281145013</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="I22" s="0" t="s">
         <v>16</v>
@@ -1050,10 +2051,10 @@
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>12</v>
@@ -1062,21 +2063,21 @@
         <v>13</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>123476</v>
+        <v>919400363491</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>12</v>
@@ -1085,24 +2086,24 @@
         <v>13</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>123477</v>
+        <v>9567737900</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>12</v>
@@ -1111,21 +2112,21 @@
         <v>13</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>123478</v>
+        <v>7356819037</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>12</v>
@@ -1134,21 +2135,21 @@
         <v>13</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>123479</v>
+        <v>8129128019</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>12</v>
@@ -1157,21 +2158,21 @@
         <v>13</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>123480</v>
+        <v>9747739793</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>12</v>
@@ -1180,18 +2181,18 @@
         <v>13</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>123481</v>
+        <v>9495646190</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>12</v>
@@ -1200,18 +2201,21 @@
         <v>13</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>123482</v>
+        <v>9605127109</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>12</v>
@@ -1220,18 +2224,18 @@
         <v>13</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>123483</v>
+        <v>7025828722</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>12</v>
@@ -1240,18 +2244,18 @@
         <v>13</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>123484</v>
+        <v>8589896041</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>12</v>
@@ -1260,18 +2264,18 @@
         <v>13</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>123485</v>
+        <v>9495650207</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>12</v>
@@ -1280,18 +2284,18 @@
         <v>13</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>123486</v>
+        <v>9567471401</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>12</v>
@@ -1300,18 +2304,18 @@
         <v>13</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>123487</v>
+        <v>8139885113</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>12</v>
@@ -1320,18 +2324,18 @@
         <v>13</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>123488</v>
+        <v>9847686829</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>12</v>
@@ -1340,18 +2344,18 @@
         <v>13</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>14</v>
+        <v>138</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>123489</v>
+        <v>9746853321</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>12</v>
@@ -1360,18 +2364,18 @@
         <v>13</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>14</v>
+        <v>141</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>123490</v>
+        <v>7560815683</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>12</v>
@@ -1380,18 +2384,18 @@
         <v>13</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>123491</v>
+        <v>9747775343</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>108</v>
+        <v>145</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>12</v>
@@ -1400,18 +2404,18 @@
         <v>13</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>14</v>
+        <v>147</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>123492</v>
+        <v>9061548950</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>111</v>
+        <v>149</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>12</v>
@@ -1420,18 +2424,18 @@
         <v>13</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>123493</v>
+        <v>8111956121</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>12</v>
@@ -1440,18 +2444,18 @@
         <v>13</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>14</v>
+        <v>153</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>123494</v>
+        <v>9633963704</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>114</v>
+        <v>154</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>115</v>
+        <v>155</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>12</v>
@@ -1460,18 +2464,18 @@
         <v>13</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>14</v>
+        <v>156</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>123495</v>
+        <v>9656436271</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>116</v>
+        <v>157</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>117</v>
+        <v>158</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>12</v>
@@ -1480,57 +2484,1935 @@
         <v>13</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>14</v>
+        <v>159</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>123496</v>
-      </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>9846391894</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>7025131485</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>8594073890</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>9496931595</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>9446512421</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>9747730020</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>7736392353</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>9497052815</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>8129313081</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <v>9497491944</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="F53" s="0" t="n">
+        <v>9447768756</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <v>9497067579</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>9495975230</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>8089748873</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <v>8547325697</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="F58" s="0" t="n">
+        <v>9497037280</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="F59" s="0" t="n">
+        <v>919496280498</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="F60" s="0" t="n">
+        <v>9947763561</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="F61" s="0" t="n">
+        <v>9539500244</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="F62" s="0" t="n">
+        <v>8281595197</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="F63" s="0" t="n">
+        <v>8289860244</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="F64" s="0" t="n">
+        <v>7736485876</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="F65" s="0" t="n">
+        <v>9846439293</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="F66" s="0" t="n">
+        <v>9497365563</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="F67" s="0" t="n">
+        <v>9061237724</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="F68" s="0" t="n">
+        <v>7560859381</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="F69" s="0" t="n">
+        <v>8714503963</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="F70" s="0" t="n">
+        <v>9847163482</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="F71" s="0" t="n">
+        <v>9497060560</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="F72" s="0" t="n">
+        <v>9745849101</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="F73" s="0" t="n">
+        <v>8592824214</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="F74" s="0" t="n">
+        <v>9745205055</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="F75" s="0" t="n">
+        <v>9495063393</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="F76" s="0" t="n">
+        <v>9061590488</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E77" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="F77" s="0" t="n">
+        <v>9747274515</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="F78" s="0" t="n">
+        <v>9447165971</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E79" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="F79" s="0" t="n">
+        <v>8281863037</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E80" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="F80" s="0" t="n">
+        <v>9995789544</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E81" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="F81" s="0" t="n">
+        <v>8304990215</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E82" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="F82" s="0" t="n">
+        <v>9745809486</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E83" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="F83" s="0" t="n">
+        <v>9961348579</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E84" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="F84" s="0" t="n">
+        <v>9809063505</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E85" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="F85" s="0" t="n">
+        <v>9679598912</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E86" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="F86" s="0" t="n">
+        <v>9895298606</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E87" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="F87" s="0" t="n">
+        <v>9562219302</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E88" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="F88" s="0" t="n">
+        <v>7012908677</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E89" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="F89" s="0" t="n">
+        <v>9447875641</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E90" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="F90" s="0" t="n">
+        <v>7994824409</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E91" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="F91" s="0" t="n">
+        <v>8943578710</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E92" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="F92" s="0" t="n">
+        <v>7561846357</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E93" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="F93" s="0" t="n">
+        <v>8289907982</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E94" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="F94" s="0" t="n">
+        <v>9656124896</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E95" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="F95" s="0" t="n">
+        <v>9446416589</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D96" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E96" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="F96" s="0" t="n">
+        <v>8547328097</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E97" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="F97" s="0" t="n">
+        <v>9895446943</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E98" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="F98" s="0" t="n">
+        <v>9400522895</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E99" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="F99" s="0" t="n">
+        <v>9544533086</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E100" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="F100" s="0" t="n">
+        <v>8592059479</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E101" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="F101" s="0" t="n">
+        <v>9497055186</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E102" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="F102" s="0" t="n">
+        <v>8086170944</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E103" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="F103" s="0" t="n">
+        <v>8089570507</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E104" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="F104" s="0" t="n">
+        <v>9946912907</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E105" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="F105" s="0" t="n">
+        <v>9645774308</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E106" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="F106" s="0" t="n">
+        <v>7034662555</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="C107" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E107" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="F107" s="0" t="n">
+        <v>8907292760</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D108" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E108" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="F108" s="0" t="n">
+        <v>9496914676</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E109" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="F109" s="0" t="n">
+        <v>9526594706</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E110" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="F110" s="0" t="n">
+        <v>9400266477</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E111" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="F111" s="0" t="n">
+        <v>9349497328</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E112" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="F112" s="0" t="n">
+        <v>9496653693</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="C113" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E113" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="F113" s="0" t="n">
+        <v>8594038230</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="C114" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D114" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E114" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="F114" s="0" t="n">
+        <v>7356217818</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="C115" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D115" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E115" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="F115" s="0" t="n">
+        <v>8606610137</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D116" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E116" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="F116" s="0" t="n">
+        <v>9531831966</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="C117" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E117" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="F117" s="0" t="n">
+        <v>9995714140</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="C118" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E118" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="F118" s="0" t="n">
+        <v>9544154811</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E119" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="F119" s="0" t="n">
+        <v>8547369586</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="C120" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E120" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="F120" s="0" t="n">
+        <v>9961266349</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="C121" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E121" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="F121" s="0" t="n">
+        <v>7034042320</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="C122" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D122" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E122" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="F122" s="0" t="n">
+        <v>8589076333</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="C123" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="E123" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="F123" s="0" t="n">
+        <v>9496280370</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="C124" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D124" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="E124" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="F124" s="0" t="n">
+        <v>9656557219</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="C125" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D125" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="E125" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="F125" s="0" t="n">
+        <v>9400126699</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="C126" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D126" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="E126" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="F126" s="0" t="n">
+        <v>9744118494</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="C127" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D127" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="E127" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="F127" s="0" t="n">
+        <v>9744896457</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="C128" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D128" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="E128" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="F128" s="0" t="n">
+        <v>7558821369</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="C129" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="E129" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="F129" s="0" t="n">
+        <v>8943900194</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="C130" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="E130" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="F130" s="0" t="n">
+        <v>9947536883</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="C131" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="E131" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="F131" s="0" t="n">
+        <v>9061353290</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="B132" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="C132" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D132" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="E132" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="F132" s="0" t="n">
+        <v>9645441230</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="B133" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="C133" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="E133" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="F133" s="0" t="n">
+        <v>9400402643</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="B134" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="C134" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D134" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="E134" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="F134" s="0" t="n">
+        <v>7356094814</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="B135" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="C135" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="E135" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="F135" s="0" t="n">
+        <v>8921757781</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="B136" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="C136" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="E136" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="F136" s="0" t="n">
+        <v>8943501327</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="B137" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="C137" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D137" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="E137" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="F137" s="0" t="n">
+        <v>8547474766</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="B138" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="C138" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D138" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="E138" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="F138" s="0" t="n">
+        <v>9895172532</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="B139" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="C139" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="E139" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="F139" s="0" t="n">
+        <v>9605628265</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="test@t.in"/>
-    <hyperlink ref="E3" r:id="rId2" display="test@t.in"/>
-    <hyperlink ref="E4" r:id="rId3" display="test@t.in"/>
-    <hyperlink ref="E5" r:id="rId4" display="test@t.in"/>
-    <hyperlink ref="E6" r:id="rId5" display="test@t.in"/>
-    <hyperlink ref="E7" r:id="rId6" display="test@t.in"/>
-    <hyperlink ref="E8" r:id="rId7" display="test@t.in"/>
-    <hyperlink ref="E9" r:id="rId8" display="test@t.in"/>
-    <hyperlink ref="E10" r:id="rId9" display="test@t.in"/>
-    <hyperlink ref="E11" r:id="rId10" display="test@t.in"/>
-    <hyperlink ref="E12" r:id="rId11" display="test@t.in"/>
-    <hyperlink ref="E13" r:id="rId12" display="test@t.in"/>
-    <hyperlink ref="E14" r:id="rId13" display="test@t.in"/>
-    <hyperlink ref="E15" r:id="rId14" display="test@t.in"/>
-    <hyperlink ref="E16" r:id="rId15" display="test@t.in"/>
-    <hyperlink ref="E17" r:id="rId16" display="test@t.in"/>
-    <hyperlink ref="E18" r:id="rId17" display="test@t.in"/>
-    <hyperlink ref="E19" r:id="rId18" display="test@t.in"/>
-    <hyperlink ref="E20" r:id="rId19" display="test@t.in"/>
-    <hyperlink ref="E21" r:id="rId20" display="test@t.in"/>
-    <hyperlink ref="E22" r:id="rId21" display="test@t.in"/>
-    <hyperlink ref="E23" r:id="rId22" display="test@t.in"/>
-    <hyperlink ref="E24" r:id="rId23" display="test@t.in"/>
-    <hyperlink ref="E25" r:id="rId24" display="test@t.in"/>
-    <hyperlink ref="E26" r:id="rId25" display="test@t.in"/>
-    <hyperlink ref="E27" r:id="rId26" display="test@t.in"/>
-    <hyperlink ref="E28" r:id="rId27" display="test@t.in"/>
-    <hyperlink ref="E29" r:id="rId28" display="test@t.in"/>
-    <hyperlink ref="E30" r:id="rId29" display="test@t.in"/>
-    <hyperlink ref="E31" r:id="rId30" display="test@t.in"/>
-    <hyperlink ref="E32" r:id="rId31" display="test@t.in"/>
-    <hyperlink ref="E33" r:id="rId32" display="test@t.in"/>
-    <hyperlink ref="E34" r:id="rId33" display="test@t.in"/>
-    <hyperlink ref="E35" r:id="rId34" display="test@t.in"/>
-    <hyperlink ref="E36" r:id="rId35" display="test@t.in"/>
-    <hyperlink ref="E37" r:id="rId36" display="test@t.in"/>
-    <hyperlink ref="E38" r:id="rId37" display="test@t.in"/>
-    <hyperlink ref="E39" r:id="rId38" display="test@t.in"/>
-    <hyperlink ref="E40" r:id="rId39" display="test@t.in"/>
-    <hyperlink ref="E41" r:id="rId40" display="test@t.in"/>
-    <hyperlink ref="E42" r:id="rId41" display="test@t.in"/>
-    <hyperlink ref="E43" r:id="rId42" display="test@t.in"/>
+    <hyperlink ref="E2" r:id="rId1" display="comashly.ash03@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
